--- a/FieldData/2015/xlsx_analysis/02-005-E Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/02-005-E Field Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_9EF4DBDF23656A251938EC0D1ECE403A72A2812C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62BC89CD-9C16-4C0C-A7E3-34DE59E1B785}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_9EF4DBDF23656A251938EC0D1ECE403A72A2812C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A77838FF-9236-4794-8F0A-0319866EE815}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1500" windowWidth="12870" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARSH" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="65">
   <si>
     <t>PLOT</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Scientific</t>
   </si>
   <si>
-    <t>Common</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lyngbye's sedge </t>
   </si>
   <si>
@@ -220,6 +214,12 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -1872,10 +1872,10 @@
   <dimension ref="A1:IO92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:H1"/>
+      <selection pane="bottomRight" activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1893,7 +1893,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -1905,45 +1905,45 @@
         <v>2</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="6">
         <v>45</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1951,14 +1951,14 @@
       <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" s="6">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
@@ -1967,22 +1967,22 @@
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>13</v>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F4" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>4</v>
@@ -1991,19 +1991,19 @@
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -2015,70 +2015,70 @@
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F6" s="6">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F8" s="6">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>4</v>
@@ -2087,46 +2087,46 @@
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>12</v>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F10" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>4</v>
@@ -2135,22 +2135,22 @@
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6">
         <v>2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.5</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>4</v>
@@ -2159,22 +2159,22 @@
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>25</v>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F12" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>4</v>
@@ -2183,19 +2183,19 @@
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F13" s="6">
         <v>0.5</v>
@@ -2207,22 +2207,22 @@
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F14" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>4</v>
@@ -2231,46 +2231,46 @@
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F15" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
+      <c r="D16" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F16" s="6">
-        <v>0.5</v>
+        <v>22</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>4</v>
@@ -2279,1178 +2279,1190 @@
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4">
         <v>8</v>
       </c>
-      <c r="B17" s="4">
-        <v>2</v>
-      </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>8</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="4">
-        <v>2</v>
-      </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="E18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="6">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="4">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="6">
-        <v>27</v>
-      </c>
-      <c r="G19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7">
+        <v>22</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
+      <c r="D20" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="6">
-        <v>37</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="F20" s="7">
+        <v>22</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="6">
-        <v>3</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="7">
+        <v>32</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>35</v>
+      <c r="D22" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="F22" s="7">
+        <v>27</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="6">
+        <v>49</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="F23" s="7">
+        <v>3</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="4">
-        <v>3</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="6">
-        <v>3</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="7">
+        <v>40</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>30</v>
+      <c r="D25" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="6">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="7">
+        <v>15</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="4">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="7">
+        <v>5</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="6">
-        <v>50</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4">
+        <v>12</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="4">
+      <c r="E28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="7">
+        <v>2</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="6">
-        <v>17</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="4">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="7">
+        <v>12</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="6">
-        <v>9</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E30" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F30" s="6">
-        <v>30</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>30</v>
+      <c r="D31" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F31" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>38</v>
+      <c r="D32" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F32" s="6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C33" s="5">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="F33" s="6">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="7">
-        <v>36</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>42</v>
+      <c r="D34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F34" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="7">
-        <v>55</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F35" s="6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="F36" s="6">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
+      <c r="D37" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F37" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F38" s="6">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F39" s="6">
         <v>2</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F40" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E41" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F41" s="6">
-        <f>100-SUM(F33:F40)</f>
-        <v>39</v>
-      </c>
-      <c r="G41" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F42" s="6">
-        <v>17</v>
+        <v>0.5</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F43" s="6">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>46</v>
+      <c r="D44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F44" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C45" s="5">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F45" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C46" s="5">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F46" s="6">
         <v>3</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F47" s="6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>16</v>
+      <c r="D48" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F48" s="6">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>18</v>
+      <c r="D49" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F49" s="6">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F50" s="6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E51" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F51" s="6">
-        <f>100-SUM(F42:F50)</f>
-        <v>12.5</v>
-      </c>
-      <c r="G51" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" s="5">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F52" s="6">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="H52" s="7">
+        <v>36</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="4">
+        <v>5</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="6">
         <v>8</v>
       </c>
-      <c r="B53" s="4">
-        <v>7</v>
-      </c>
-      <c r="C53" s="5">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="6">
-        <v>20</v>
-      </c>
       <c r="G53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="H53" s="7">
+        <v>55</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F54" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>16</v>
+      <c r="D55" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F55" s="6">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>19</v>
+      <c r="D56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F56" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F57" s="6">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F58" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F59" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" s="5">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="6">
         <v>30</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="6">
-        <v>1</v>
-      </c>
       <c r="G60" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F61" s="6">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" s="7">
-        <v>8</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="F62" s="6">
+        <v>70</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>16</v>
+      <c r="D63" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="7">
-        <v>13</v>
-      </c>
-      <c r="G63" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="6">
         <v>5</v>
       </c>
-      <c r="H63" s="12"/>
+      <c r="G63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" s="7">
-        <v>1</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H64" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F65" s="7">
-        <v>80</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="4">
-        <v>115</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="6">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
@@ -3459,165 +3471,165 @@
         <v>9</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="7">
-        <v>22</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F66" s="6">
+        <v>4</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>16</v>
+      <c r="D67" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" s="7">
-        <v>22</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H67" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="4">
         <v>8</v>
       </c>
-      <c r="B68" s="4">
-        <v>9</v>
-      </c>
       <c r="C68" s="5">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F68" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H68" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="6">
+        <v>95</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="4">
         <v>8</v>
       </c>
-      <c r="B69" s="4">
-        <v>9</v>
-      </c>
       <c r="C69" s="5">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F69" s="7">
         <v>1</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F70" s="7">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H70" s="4">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="F71" s="7">
-        <v>32</v>
+        <v>0.5</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" s="5">
         <v>1</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>17</v>
+      <c r="D72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F72" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H72" s="12"/>
     </row>
     <row r="73" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" s="4">
         <v>10</v>
@@ -3626,22 +3638,24 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F73" s="7">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="H73" s="4">
+        <v>107</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" s="4">
         <v>10</v>
@@ -3650,22 +3664,22 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F74" s="7">
         <v>2</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H74" s="12"/>
     </row>
     <row r="75" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" s="4">
         <v>10</v>
@@ -3674,22 +3688,22 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="F75" s="7">
         <v>0.5</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H75" s="12"/>
     </row>
     <row r="76" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" s="4">
         <v>10</v>
@@ -3698,16 +3712,16 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F76" s="7">
         <v>10</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H76" s="4">
         <v>28</v>
@@ -3715,7 +3729,7 @@
     </row>
     <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" s="4">
         <v>11</v>
@@ -3724,22 +3738,22 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F77" s="7">
         <v>35</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H77" s="12"/>
     </row>
     <row r="78" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="4">
         <v>11</v>
@@ -3748,22 +3762,22 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F78" s="7">
-        <v>40</v>
+        <v>0.5</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" s="4">
         <v>11</v>
@@ -3771,23 +3785,23 @@
       <c r="C79" s="5">
         <v>1</v>
       </c>
-      <c r="D79" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>17</v>
+      <c r="D79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="F79" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H79" s="12"/>
     </row>
     <row r="80" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" s="4">
         <v>11</v>
@@ -3795,23 +3809,23 @@
       <c r="C80" s="5">
         <v>1</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>39</v>
+      <c r="D80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F80" s="7">
         <v>0.5</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H80" s="12"/>
     </row>
     <row r="81" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81" s="4">
         <v>11</v>
@@ -3820,284 +3834,279 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F81" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H81" s="12"/>
     </row>
     <row r="82" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" s="5">
         <v>1</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>13</v>
+      <c r="D82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F82" s="7">
-        <v>0.5</v>
+        <v>95</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H82" s="12"/>
     </row>
     <row r="83" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" s="5">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F83" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="H83" s="12"/>
     </row>
     <row r="84" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" s="4">
+        <v>12</v>
+      </c>
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="5">
-        <v>1</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>51</v>
+      <c r="E84" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F84" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H84" s="12"/>
     </row>
     <row r="85" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B85" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" s="5">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F85" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H85" s="12"/>
     </row>
     <row r="86" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86" s="7">
-        <v>5</v>
-      </c>
-      <c r="G86" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H86" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C87" s="5">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F87" s="7">
-        <v>95</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H87" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F87" s="6">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" s="5">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="F88" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="H88" s="12"/>
     </row>
     <row r="89" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C89" s="5">
         <v>1</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F89" s="7">
-        <v>3</v>
-      </c>
-      <c r="G89" s="12" t="s">
+      <c r="D89" s="2"/>
+      <c r="E89" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" s="6">
         <v>4</v>
       </c>
-      <c r="H89" s="12"/>
+      <c r="G89" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" s="4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C90" s="5">
         <v>1</v>
       </c>
-      <c r="D90" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="D90" s="2"/>
       <c r="E90" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90" s="7">
-        <v>12</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H90" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="F90" s="6">
+        <v>30</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C91" s="5">
         <v>1</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="7">
-        <v>1</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="12"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" s="6">
+        <v>39</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H91" s="7"/>
     </row>
     <row r="92" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C92" s="5">
         <v>1</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F92" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H92" s="12"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F92" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H92" s="7"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H92">
+    <sortCondition ref="G2:G92"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
